--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/115_ExcelToGenericTableAutoDetect.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/115_ExcelToGenericTableAutoDetect.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales_Imported" sheetId="1" r:id="R6c87af32d25946f9"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Matrix_Imported" sheetId="2" r:id="R6a7e96edba3c4634"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales_Imported" sheetId="1" r:id="R0fab01d99ab74535"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Matrix_Imported" sheetId="2" r:id="R6e205c96b24c46ce"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -31,12 +31,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/115_ExcelToGenericTableAutoDetect.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/115_ExcelToGenericTableAutoDetect.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales_Imported" sheetId="1" r:id="R0fab01d99ab74535"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Matrix_Imported" sheetId="2" r:id="R6e205c96b24c46ce"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales_Imported" sheetId="1" r:id="R0aa0bf3ff17c49cc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Matrix_Imported" sheetId="2" r:id="R72d19098f4be4f9f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -31,12 +31,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/115_ExcelToGenericTableAutoDetect.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/115_ExcelToGenericTableAutoDetect.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales_Imported" sheetId="1" r:id="R0aa0bf3ff17c49cc"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Matrix_Imported" sheetId="2" r:id="R72d19098f4be4f9f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales_Imported" sheetId="1" r:id="R2431ed6bc4fc4222"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Matrix_Imported" sheetId="2" r:id="R036f76693a164fa2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
